--- a/create cards for OZON WB XLS/data to create Футболки/Футболки_создание карточки.xlsx
+++ b/create cards for OZON WB XLS/data to create Футболки/Футболки_создание карточки.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="117">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1766,6 +1766,15 @@
     <t xml:space="preserve">Платье для девочки желтое</t>
   </si>
   <si>
+    <t xml:space="preserve">желтый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">платье для девочки, платье желтое</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1912,6 +1921,12 @@
   </si>
   <si>
     <t xml:space="preserve">Футболка для девочки Единорог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">белый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">футболка для девочки, футболка единорог</t>
   </si>
   <si>
     <r>
@@ -2340,7 +2355,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2439,8 +2454,8 @@
   </sheetPr>
   <dimension ref="A1:BS86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL2" activeCellId="0" sqref="AL2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BN20" activeCellId="0" sqref="BN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2806,8 +2821,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM2" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP2" s="14" t="str">
         <f aca="false">J2</f>
@@ -2958,8 +2973,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM3" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H3, C3, "_2.jpg;"),CONCATENATE(H3, C3, "_3.jpg;"),CONCATENATE(H3, C3, "_4.jpg;"),CONCATENATE(H3, C3, "_5.jpg;"),CONCATENATE(H3, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H3, C3, "_2.jpg;"),CONCATENATE(H3, C3, "_3.jpg;"),CONCATENATE(H3, C3, "_4.jpg;"),CONCATENATE(H3, C3, "_5.jpg;"),CONCATENATE(H3, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP3" s="14" t="str">
         <f aca="false">J3</f>
@@ -3110,8 +3125,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM4" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H4, C4, "_2.jpg;"),CONCATENATE(H4, C4, "_3.jpg;"),CONCATENATE(H4, C4, "_4.jpg;"),CONCATENATE(H4, C4, "_5.jpg;"),CONCATENATE(H4, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H4, C4, "_2.jpg;"),CONCATENATE(H4, C4, "_3.jpg;"),CONCATENATE(H4, C4, "_4.jpg;"),CONCATENATE(H4, C4, "_5.jpg;"),CONCATENATE(H4, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP4" s="14" t="str">
         <f aca="false">J4</f>
@@ -3262,8 +3277,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM5" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H5, C5, "_2.jpg;"),CONCATENATE(H5, C5, "_3.jpg;"),CONCATENATE(H5, C5, "_4.jpg;"),CONCATENATE(H5, C5, "_5.jpg;"),CONCATENATE(H5, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H5, C5, "_2.jpg;"),CONCATENATE(H5, C5, "_3.jpg;"),CONCATENATE(H5, C5, "_4.jpg;"),CONCATENATE(H5, C5, "_5.jpg;"),CONCATENATE(H5, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP5" s="14" t="str">
         <f aca="false">J5</f>
@@ -3414,8 +3429,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM6" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H6, C6, "_2.jpg;"),CONCATENATE(H6, C6, "_3.jpg;"),CONCATENATE(H6, C6, "_4.jpg;"),CONCATENATE(H6, C6, "_5.jpg;"),CONCATENATE(H6, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H6, C6, "_2.jpg;"),CONCATENATE(H6, C6, "_3.jpg;"),CONCATENATE(H6, C6, "_4.jpg;"),CONCATENATE(H6, C6, "_5.jpg;"),CONCATENATE(H6, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP6" s="14" t="str">
         <f aca="false">J6</f>
@@ -3566,8 +3581,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM7" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H7, C7, "_2.jpg;"),CONCATENATE(H7, C7, "_3.jpg;"),CONCATENATE(H7, C7, "_4.jpg;"),CONCATENATE(H7, C7, "_5.jpg;"),CONCATENATE(H7, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H7, C7, "_2.jpg;"),CONCATENATE(H7, C7, "_3.jpg;"),CONCATENATE(H7, C7, "_4.jpg;"),CONCATENATE(H7, C7, "_5.jpg;"),CONCATENATE(H7, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP7" s="14" t="str">
         <f aca="false">J7</f>
@@ -3718,8 +3733,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_1.jpg</v>
       </c>
       <c r="AM8" s="15" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H8, C8, "_2.jpg;"),CONCATENATE(H8, C8, "_3.jpg;"),CONCATENATE(H8, C8, "_4.jpg;"),CONCATENATE(H8, C8, "_5.jpg;"),CONCATENATE(H8, "instruction_A5.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/instruction_A5.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H8, C8, "_2.jpg;"),CONCATENATE(H8, C8, "_3.jpg;"),CONCATENATE(H8, C8, "_4.jpg;"),CONCATENATE(H8, C8, "_5.jpg;"),CONCATENATE(H8, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
       </c>
       <c r="AP8" s="14" t="str">
         <f aca="false">J8</f>
@@ -3869,22 +3884,65 @@
         <f aca="false">CONCATENATE(H9,C9,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_1.jpg</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="16"/>
-      <c r="AS9" s="12"/>
-      <c r="AU9" s="11"/>
-      <c r="AX9" s="13"/>
-      <c r="BA9" s="13"/>
-      <c r="BC9" s="12"/>
+      <c r="AM9" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H9, C9, "_2.jpg;"),CONCATENATE(H9, C9, "_3.jpg;"),CONCATENATE(H9, C9, "_4.jpg;"),CONCATENATE(H9, C9, "_5.jpg;"),CONCATENATE(H9, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP9" s="14" t="str">
+        <f aca="false">J9</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT9" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A9,"Термонаклейка ","")</f>
+        <v>Платье желтое р92</v>
+      </c>
+      <c r="AU9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV9" s="0" t="str">
+        <f aca="false">S9</f>
+        <v>Платье желтое р92Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX9" s="13" t="str">
+        <f aca="false">X9</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA9" s="13" t="str">
+        <f aca="false">R9</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC9" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="BD9" s="12"/>
-      <c r="BE9" s="15"/>
+      <c r="BE9" s="15" t="str">
+        <f aca="false">CONCATENATE(H9,C9,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
+      </c>
+      <c r="BL9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM9" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="BR9" s="8"/>
       <c r="BS9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>93</v>
@@ -3978,22 +4036,65 @@
         <f aca="false">CONCATENATE(H10,C10,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_1.jpg</v>
       </c>
-      <c r="AM10" s="15"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="16"/>
-      <c r="AS10" s="12"/>
-      <c r="AU10" s="11"/>
-      <c r="AX10" s="13"/>
-      <c r="BA10" s="13"/>
-      <c r="BC10" s="12"/>
+      <c r="AM10" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H10, C10, "_2.jpg;"),CONCATENATE(H10, C10, "_3.jpg;"),CONCATENATE(H10, C10, "_4.jpg;"),CONCATENATE(H10, C10, "_5.jpg;"),CONCATENATE(H10, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP10" s="14" t="str">
+        <f aca="false">J10</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT10" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A10,"Термонаклейка ","")</f>
+        <v>Платье желтое р98</v>
+      </c>
+      <c r="AU10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV10" s="0" t="str">
+        <f aca="false">S10</f>
+        <v>Платье желтое р98Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX10" s="13" t="str">
+        <f aca="false">X10</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA10" s="13" t="str">
+        <f aca="false">R10</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC10" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="BD10" s="12"/>
-      <c r="BE10" s="15"/>
+      <c r="BE10" s="15" t="str">
+        <f aca="false">CONCATENATE(H10,C10,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
+      </c>
+      <c r="BL10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM10" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="BR10" s="8"/>
       <c r="BS10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>93</v>
@@ -4087,22 +4188,65 @@
         <f aca="false">CONCATENATE(H11,C11,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_1.jpg</v>
       </c>
-      <c r="AM11" s="15"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="16"/>
-      <c r="AS11" s="12"/>
-      <c r="AU11" s="11"/>
-      <c r="AX11" s="13"/>
-      <c r="BA11" s="13"/>
-      <c r="BC11" s="12"/>
+      <c r="AM11" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H11, C11, "_2.jpg;"),CONCATENATE(H11, C11, "_3.jpg;"),CONCATENATE(H11, C11, "_4.jpg;"),CONCATENATE(H11, C11, "_5.jpg;"),CONCATENATE(H11, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP11" s="14" t="str">
+        <f aca="false">J11</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT11" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A11,"Термонаклейка ","")</f>
+        <v>Платье желтое р104</v>
+      </c>
+      <c r="AU11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV11" s="0" t="str">
+        <f aca="false">S11</f>
+        <v>Платье желтое р104Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX11" s="13" t="str">
+        <f aca="false">X11</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA11" s="13" t="str">
+        <f aca="false">R11</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC11" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="BD11" s="12"/>
-      <c r="BE11" s="15"/>
+      <c r="BE11" s="15" t="str">
+        <f aca="false">CONCATENATE(H11,C11,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
+      </c>
+      <c r="BL11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM11" s="0" t="s">
+        <v>98</v>
+      </c>
       <c r="BR11" s="8"/>
       <c r="BS11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>93</v>
@@ -4196,10 +4340,62 @@
         <f aca="false">CONCATENATE(H12,C12,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_1.jpg</v>
       </c>
+      <c r="AM12" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H12, C12, "_2.jpg;"),CONCATENATE(H12, C12, "_3.jpg;"),CONCATENATE(H12, C12, "_4.jpg;"),CONCATENATE(H12, C12, "_5.jpg;"),CONCATENATE(H12, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP12" s="14" t="str">
+        <f aca="false">J12</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ12" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT12" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A12,"Термонаклейка ","")</f>
+        <v>Платье желтое р110</v>
+      </c>
+      <c r="AU12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV12" s="0" t="str">
+        <f aca="false">S12</f>
+        <v>Платье желтое р110Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX12" s="13" t="str">
+        <f aca="false">X12</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA12" s="13" t="str">
+        <f aca="false">R12</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE12" s="15" t="str">
+        <f aca="false">CONCATENATE(H12,C12,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
+      </c>
+      <c r="BL12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM12" s="0" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>93</v>
@@ -4293,10 +4489,62 @@
         <f aca="false">CONCATENATE(H13,C13,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_1.jpg</v>
       </c>
+      <c r="AM13" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H13, C13, "_2.jpg;"),CONCATENATE(H13, C13, "_3.jpg;"),CONCATENATE(H13, C13, "_4.jpg;"),CONCATENATE(H13, C13, "_5.jpg;"),CONCATENATE(H13, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP13" s="14" t="str">
+        <f aca="false">J13</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ13" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT13" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A13,"Термонаклейка ","")</f>
+        <v>Платье желтое р116</v>
+      </c>
+      <c r="AU13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV13" s="0" t="str">
+        <f aca="false">S13</f>
+        <v>Платье желтое р116Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX13" s="13" t="str">
+        <f aca="false">X13</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA13" s="13" t="str">
+        <f aca="false">R13</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE13" s="15" t="str">
+        <f aca="false">CONCATENATE(H13,C13,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
+      </c>
+      <c r="BL13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM13" s="0" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>93</v>
@@ -4390,13 +4638,65 @@
         <f aca="false">CONCATENATE(H14,C14,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_1.jpg</v>
       </c>
+      <c r="AM14" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H14, C14, "_2.jpg;"),CONCATENATE(H14, C14, "_3.jpg;"),CONCATENATE(H14, C14, "_4.jpg;"),CONCATENATE(H14, C14, "_5.jpg;"),CONCATENATE(H14, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP14" s="14" t="str">
+        <f aca="false">J14</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ14" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT14" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A14,"Термонаклейка ","")</f>
+        <v>Платье желтое р122</v>
+      </c>
+      <c r="AU14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV14" s="0" t="str">
+        <f aca="false">S14</f>
+        <v>Платье желтое р122Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX14" s="13" t="str">
+        <f aca="false">X14</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA14" s="13" t="str">
+        <f aca="false">R14</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE14" s="15" t="str">
+        <f aca="false">CONCATENATE(H14,C14,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
+      </c>
+      <c r="BL14" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM14" s="0" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A15, ".pdf")</f>
@@ -4416,7 +4716,7 @@
         <v>Футболка Единорог р98</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>700</v>
@@ -4487,13 +4787,65 @@
         <f aca="false">CONCATENATE(H15,C15,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM15" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H15, C15, "_2.jpg;"),CONCATENATE(H15, C15, "_3.jpg;"),CONCATENATE(H15, C15, "_4.jpg;"),CONCATENATE(H15, C15, "_5.jpg;"),CONCATENATE(H15, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP15" s="14" t="str">
+        <f aca="false">J15</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ15" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT15" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A15,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р98</v>
+      </c>
+      <c r="AU15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV15" s="0" t="str">
+        <f aca="false">S15</f>
+        <v>Футболка Единорог р98Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX15" s="13" t="str">
+        <f aca="false">X15</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA15" s="13" t="str">
+        <f aca="false">R15</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE15" s="15" t="str">
+        <f aca="false">CONCATENATE(H15,C15,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL15" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM15" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A16, ".pdf")</f>
@@ -4513,7 +4865,7 @@
         <v>Футболка Единорог р104</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>700</v>
@@ -4584,13 +4936,65 @@
         <f aca="false">CONCATENATE(H16,C16,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM16" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H16, C16, "_2.jpg;"),CONCATENATE(H16, C16, "_3.jpg;"),CONCATENATE(H16, C16, "_4.jpg;"),CONCATENATE(H16, C16, "_5.jpg;"),CONCATENATE(H16, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP16" s="14" t="str">
+        <f aca="false">J16</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT16" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A16,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р104</v>
+      </c>
+      <c r="AU16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV16" s="0" t="str">
+        <f aca="false">S16</f>
+        <v>Футболка Единорог р104Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX16" s="13" t="str">
+        <f aca="false">X16</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA16" s="13" t="str">
+        <f aca="false">R16</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE16" s="15" t="str">
+        <f aca="false">CONCATENATE(H16,C16,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM16" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A17, ".pdf")</f>
@@ -4610,7 +5014,7 @@
         <v>Футболка Единорог р110</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>700</v>
@@ -4681,13 +5085,65 @@
         <f aca="false">CONCATENATE(H17,C17,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM17" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H17, C17, "_2.jpg;"),CONCATENATE(H17, C17, "_3.jpg;"),CONCATENATE(H17, C17, "_4.jpg;"),CONCATENATE(H17, C17, "_5.jpg;"),CONCATENATE(H17, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP17" s="14" t="str">
+        <f aca="false">J17</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT17" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A17,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р110</v>
+      </c>
+      <c r="AU17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV17" s="0" t="str">
+        <f aca="false">S17</f>
+        <v>Футболка Единорог р110Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX17" s="13" t="str">
+        <f aca="false">X17</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA17" s="13" t="str">
+        <f aca="false">R17</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE17" s="15" t="str">
+        <f aca="false">CONCATENATE(H17,C17,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM17" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A18, ".pdf")</f>
@@ -4707,7 +5163,7 @@
         <v>Футболка Единорог р116</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>700</v>
@@ -4778,13 +5234,65 @@
         <f aca="false">CONCATENATE(H18,C18,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM18" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H18, C18, "_2.jpg;"),CONCATENATE(H18, C18, "_3.jpg;"),CONCATENATE(H18, C18, "_4.jpg;"),CONCATENATE(H18, C18, "_5.jpg;"),CONCATENATE(H18, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP18" s="14" t="str">
+        <f aca="false">J18</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT18" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A18,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р116</v>
+      </c>
+      <c r="AU18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV18" s="0" t="str">
+        <f aca="false">S18</f>
+        <v>Футболка Единорог р116Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX18" s="13" t="str">
+        <f aca="false">X18</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA18" s="13" t="str">
+        <f aca="false">R18</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE18" s="15" t="str">
+        <f aca="false">CONCATENATE(H18,C18,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM18" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A19, ".pdf")</f>
@@ -4804,7 +5312,7 @@
         <v>Футболка Единорог р122</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>700</v>
@@ -4875,13 +5383,65 @@
         <f aca="false">CONCATENATE(H19,C19,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM19" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H19, C19, "_2.jpg;"),CONCATENATE(H19, C19, "_3.jpg;"),CONCATENATE(H19, C19, "_4.jpg;"),CONCATENATE(H19, C19, "_5.jpg;"),CONCATENATE(H19, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP19" s="14" t="str">
+        <f aca="false">J19</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ19" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT19" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A19,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р122</v>
+      </c>
+      <c r="AU19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV19" s="0" t="str">
+        <f aca="false">S19</f>
+        <v>Футболка Единорог р122Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX19" s="13" t="str">
+        <f aca="false">X19</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA19" s="13" t="str">
+        <f aca="false">R19</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC19" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE19" s="15" t="str">
+        <f aca="false">CONCATENATE(H19,C19,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM19" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A20, ".pdf")</f>
@@ -4901,7 +5461,7 @@
         <v>Футболка Единорог р128</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>700</v>
@@ -4972,13 +5532,65 @@
         <f aca="false">CONCATENATE(H20,C20,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM20" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H20, C20, "_2.jpg;"),CONCATENATE(H20, C20, "_3.jpg;"),CONCATENATE(H20, C20, "_4.jpg;"),CONCATENATE(H20, C20, "_5.jpg;"),CONCATENATE(H20, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP20" s="14" t="str">
+        <f aca="false">J20</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ20" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR20" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT20" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A20,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р128</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV20" s="0" t="str">
+        <f aca="false">S20</f>
+        <v>Футболка Единорог р128Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX20" s="13" t="str">
+        <f aca="false">X20</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA20" s="13" t="str">
+        <f aca="false">R20</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC20" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE20" s="15" t="str">
+        <f aca="false">CONCATENATE(H20,C20,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM20" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A21, ".pdf")</f>
@@ -4998,7 +5610,7 @@
         <v>Футболка Единорог р134</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>700</v>
@@ -5069,6 +5681,58 @@
         <f aca="false">CONCATENATE(H21,C21,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_1.jpg</v>
       </c>
+      <c r="AM21" s="15" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H21, C21, "_2.jpg;"),CONCATENATE(H21, C21, "_3.jpg;"),CONCATENATE(H21, C21, "_4.jpg;"),CONCATENATE(H21, C21, "_5.jpg;"),CONCATENATE(H21, "certificate_futbolki.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/certificate_futbolki.jpg;</v>
+      </c>
+      <c r="AP21" s="14" t="str">
+        <f aca="false">J21</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ21" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT21" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A21,"Термонаклейка ","")</f>
+        <v>Футболка Единорог р134</v>
+      </c>
+      <c r="AU21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV21" s="0" t="str">
+        <f aca="false">S21</f>
+        <v>Футболка Единорог р134Детская футболка с изумительным принтом - Человек Паук.
+Состав 95% хлопок +5% лайкра. Официальная детская сертификация!
+Она более приятна к телу для детей и гипоаллергенна! Изделия из хлопка с лайкрой более износостойки, мягкие, чем 100% хлопок; такие вещи почти не выгорают на солнце, не портятся от воздействия солёной воды, не линяют. Текстиль получается дышащим, влаговпитывающим. Наличие лайкры обеспечивает необходимую упругость и препятствует деформации хлопкового полотна. Вещи из лайкры с хлопком не мнутся. У такого состава намного больше преимуществ. Футболка из хорошей и плотной ткани.
+Прикольный, классный принт от наших дизайнеров! Модель отлично смотрится с любой одеждой - брюками и джинсами, а так же с шортами и юбкой. Футболка идеально подойдет для праздников, детского сада, школы, на физкультуру и как повседневный вариант. Принт очень яркий и красочный, передает все цвета и градиенты. Ребенок будет счастлив и родители тоже. Одежду мы разрабатываем в России и придумываем дизайн с большой любовью. С любовью Панки Манки!</v>
+      </c>
+      <c r="AX21" s="13" t="str">
+        <f aca="false">X21</f>
+        <v>Узбекистан</v>
+      </c>
+      <c r="BA21" s="13" t="str">
+        <f aca="false">R21</f>
+        <v>хлопок лайкра</v>
+      </c>
+      <c r="BC21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE21" s="15" t="str">
+        <f aca="false">CONCATENATE(H21,C21,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
+      </c>
+      <c r="BL21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BM21" s="0" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
@@ -5266,7 +5930,7 @@
       <c r="A86" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="17">
+  <dataValidations count="15">
     <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ11" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -5279,27 +5943,23 @@
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BB2:BB11 BH2:BH11 BO2:BO11 AR9:AR11" type="whole">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BB2:BB11 BH2:BH11 BO2:BO11" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2:AS11" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2:AS14" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU9:AU11" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2:AX21" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2:AX11" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2:BA21" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2:BA11" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2:BC11" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2:BC21" type="list">
       <formula1>"Да,Нет"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5323,15 +5983,11 @@
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL9:BL11" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2:AU8" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2:AU8 AU15:AU21" type="list">
       <formula1>#NAME?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2:BL8" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2:BL21" type="list">
       <formula1>#NAME?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5368,394 +6024,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/create cards for OZON WB XLS/data to create Футболки/Футболки_создание карточки.xlsx
+++ b/create cards for OZON WB XLS/data to create Футболки/Футболки_создание карточки.xlsx
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:BS86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN20" activeCellId="0" sqref="BN20"/>
+      <selection pane="topLeft" activeCell="BE21" activeCellId="0" sqref="BE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/create cards for OZON WB XLS/data to create Футболки/Футболки_создание карточки.xlsx
+++ b/create cards for OZON WB XLS/data to create Футболки/Футболки_создание карточки.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="119">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1556,6 +1556,9 @@
     <t xml:space="preserve">Футболка</t>
   </si>
   <si>
+    <t xml:space="preserve">Мальчики</t>
+  </si>
+  <si>
     <t xml:space="preserve">6109100000 - Майки, фуфайки с рукавами и прочие нательные фуфайки трикотажные, из хлопчатобумажной пряжи, машинного или ручного вязания</t>
   </si>
   <si>
@@ -1770,6 +1773,9 @@
   </si>
   <si>
     <t xml:space="preserve">Платье</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Девочки</t>
   </si>
   <si>
     <t xml:space="preserve">платье для девочки, платье желтое</t>
@@ -2454,8 +2460,8 @@
   </sheetPr>
   <dimension ref="A1:BS86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE21" activeCellId="0" sqref="BE21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2867,18 +2873,21 @@
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK2" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL2" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR2" s="8"/>
       <c r="BS2" s="18"/>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>72</v>
@@ -3019,18 +3028,21 @@
         <f aca="false">CONCATENATE(H3,C3,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK3" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL3" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR3" s="8"/>
       <c r="BS3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>72</v>
@@ -3171,18 +3183,21 @@
         <f aca="false">CONCATENATE(H4,C4,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK4" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL4" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM4" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR4" s="8"/>
       <c r="BS4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>72</v>
@@ -3323,18 +3338,21 @@
         <f aca="false">CONCATENATE(H5,C5,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK5" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL5" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM5" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR5" s="8"/>
       <c r="BS5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>72</v>
@@ -3475,18 +3493,21 @@
         <f aca="false">CONCATENATE(H6,C6,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK6" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL6" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR6" s="8"/>
       <c r="BS6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>72</v>
@@ -3627,18 +3648,21 @@
         <f aca="false">CONCATENATE(H7,C7,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK7" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL7" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR7" s="8"/>
       <c r="BS7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>72</v>
@@ -3779,21 +3803,24 @@
         <f aca="false">CONCATENATE(H8,C8,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/sonic_run_color.jpg</v>
       </c>
+      <c r="BK8" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="BL8" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BR8" s="8"/>
       <c r="BS8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A9, ".pdf")</f>
@@ -3803,7 +3830,7 @@
         <v>73</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>75</v>
@@ -3813,7 +3840,7 @@
         <v>Платье желтое р92</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>1000</v>
@@ -3899,14 +3926,14 @@
         <v>1</v>
       </c>
       <c r="AS9" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AT9" s="0" t="str">
         <f aca="false">SUBSTITUTE(A9,"Термонаклейка ","")</f>
         <v>Платье желтое р92</v>
       </c>
       <c r="AU9" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV9" s="0" t="str">
         <f aca="false">S9</f>
@@ -3931,21 +3958,24 @@
         <f aca="false">CONCATENATE(H9,C9,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
       </c>
+      <c r="BK9" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL9" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM9" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BR9" s="8"/>
       <c r="BS9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A10, ".pdf")</f>
@@ -3955,7 +3985,7 @@
         <v>73</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>75</v>
@@ -3965,7 +3995,7 @@
         <v>Платье желтое р98</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>1000</v>
@@ -4051,14 +4081,14 @@
         <v>1</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AT10" s="0" t="str">
         <f aca="false">SUBSTITUTE(A10,"Термонаклейка ","")</f>
         <v>Платье желтое р98</v>
       </c>
       <c r="AU10" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV10" s="0" t="str">
         <f aca="false">S10</f>
@@ -4083,21 +4113,24 @@
         <f aca="false">CONCATENATE(H10,C10,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
       </c>
+      <c r="BK10" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL10" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM10" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BR10" s="8"/>
       <c r="BS10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A11, ".pdf")</f>
@@ -4107,7 +4140,7 @@
         <v>73</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>75</v>
@@ -4117,7 +4150,7 @@
         <v>Платье желтое р104</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>1000</v>
@@ -4203,14 +4236,14 @@
         <v>1</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AT11" s="0" t="str">
         <f aca="false">SUBSTITUTE(A11,"Термонаклейка ","")</f>
         <v>Платье желтое р104</v>
       </c>
       <c r="AU11" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV11" s="0" t="str">
         <f aca="false">S11</f>
@@ -4235,21 +4268,24 @@
         <f aca="false">CONCATENATE(H11,C11,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
       </c>
+      <c r="BK11" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL11" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM11" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BR11" s="8"/>
       <c r="BS11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A12, ".pdf")</f>
@@ -4259,7 +4295,7 @@
         <v>73</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>75</v>
@@ -4269,7 +4305,7 @@
         <v>Платье желтое р110</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>1000</v>
@@ -4355,14 +4391,14 @@
         <v>1</v>
       </c>
       <c r="AS12" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AT12" s="0" t="str">
         <f aca="false">SUBSTITUTE(A12,"Термонаклейка ","")</f>
         <v>Платье желтое р110</v>
       </c>
       <c r="AU12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV12" s="0" t="str">
         <f aca="false">S12</f>
@@ -4386,19 +4422,22 @@
         <f aca="false">CONCATENATE(H12,C12,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
       </c>
+      <c r="BK12" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL12" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM12" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A13, ".pdf")</f>
@@ -4408,7 +4447,7 @@
         <v>73</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>75</v>
@@ -4418,7 +4457,7 @@
         <v>Платье желтое р116</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>1000</v>
@@ -4504,14 +4543,14 @@
         <v>1</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AT13" s="0" t="str">
         <f aca="false">SUBSTITUTE(A13,"Термонаклейка ","")</f>
         <v>Платье желтое р116</v>
       </c>
       <c r="AU13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV13" s="0" t="str">
         <f aca="false">S13</f>
@@ -4535,19 +4574,22 @@
         <f aca="false">CONCATENATE(H13,C13,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
       </c>
+      <c r="BK13" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL13" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM13" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A14, ".pdf")</f>
@@ -4557,7 +4599,7 @@
         <v>73</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" s="0" t="s">
         <v>75</v>
@@ -4567,7 +4609,7 @@
         <v>Платье желтое р122</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>1000</v>
@@ -4653,14 +4695,14 @@
         <v>1</v>
       </c>
       <c r="AS14" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AT14" s="0" t="str">
         <f aca="false">SUBSTITUTE(A14,"Термонаклейка ","")</f>
         <v>Платье желтое р122</v>
       </c>
       <c r="AU14" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AV14" s="0" t="str">
         <f aca="false">S14</f>
@@ -4684,19 +4726,22 @@
         <f aca="false">CONCATENATE(H14,C14,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/yellow_girl_dress_color.jpg</v>
       </c>
+      <c r="BK14" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL14" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM14" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A15, ".pdf")</f>
@@ -4716,7 +4761,7 @@
         <v>Футболка Единорог р98</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>700</v>
@@ -4802,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="AS15" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT15" s="0" t="str">
         <f aca="false">SUBSTITUTE(A15,"Термонаклейка ","")</f>
@@ -4833,19 +4878,22 @@
         <f aca="false">CONCATENATE(H15,C15,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK15" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL15" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM15" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A16, ".pdf")</f>
@@ -4865,7 +4913,7 @@
         <v>Футболка Единорог р104</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>700</v>
@@ -4951,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="AS16" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT16" s="0" t="str">
         <f aca="false">SUBSTITUTE(A16,"Термонаклейка ","")</f>
@@ -4982,19 +5030,22 @@
         <f aca="false">CONCATENATE(H16,C16,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK16" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL16" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM16" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A17, ".pdf")</f>
@@ -5014,7 +5065,7 @@
         <v>Футболка Единорог р110</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>700</v>
@@ -5100,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="AS17" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT17" s="0" t="str">
         <f aca="false">SUBSTITUTE(A17,"Термонаклейка ","")</f>
@@ -5131,19 +5182,22 @@
         <f aca="false">CONCATENATE(H17,C17,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK17" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL17" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM17" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A18, ".pdf")</f>
@@ -5163,7 +5217,7 @@
         <v>Футболка Единорог р116</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>700</v>
@@ -5249,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="AS18" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT18" s="0" t="str">
         <f aca="false">SUBSTITUTE(A18,"Термонаклейка ","")</f>
@@ -5280,19 +5334,22 @@
         <f aca="false">CONCATENATE(H18,C18,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK18" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL18" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM18" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A19, ".pdf")</f>
@@ -5312,7 +5369,7 @@
         <v>Футболка Единорог р122</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>700</v>
@@ -5398,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AS19" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT19" s="0" t="str">
         <f aca="false">SUBSTITUTE(A19,"Термонаклейка ","")</f>
@@ -5429,19 +5486,22 @@
         <f aca="false">CONCATENATE(H19,C19,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK19" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL19" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM19" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A20, ".pdf")</f>
@@ -5461,7 +5521,7 @@
         <v>Футболка Единорог р128</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>700</v>
@@ -5547,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="AS20" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT20" s="0" t="str">
         <f aca="false">SUBSTITUTE(A20,"Термонаклейка ","")</f>
@@ -5578,19 +5638,22 @@
         <f aca="false">CONCATENATE(H20,C20,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK20" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL20" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM20" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\футболки\", A21, ".pdf")</f>
@@ -5610,7 +5673,7 @@
         <v>Футболка Единорог р134</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>700</v>
@@ -5696,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="AS21" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AT21" s="0" t="str">
         <f aca="false">SUBSTITUTE(A21,"Термонаклейка ","")</f>
@@ -5727,11 +5790,14 @@
         <f aca="false">CONCATENATE(H21,C21,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/cloth/unicorn_tshirt_color.jpg</v>
       </c>
+      <c r="BK21" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="BL21" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM21" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5979,15 +6045,15 @@
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2:BK11" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2:AU8 AU15:AU21" type="list">
       <formula1>#NAME?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2:BL21" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BK2:BK21" type="list">
       <formula1>#NAME?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6011,7 +6077,7 @@
   <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+      <selection pane="topLeft" activeCell="A49" activeCellId="1" sqref="A15:A21 A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6024,394 +6090,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
